--- a/Data/ThioesteraseProductFractionLabel.xlsx
+++ b/Data/ThioesteraseProductFractionLabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baopa\Documents\Pfleger_Lab\BTE_Mutagenesis\FASTA sequences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb5732/Box Sync/PhD-dzb5732@psu.edu/Projects/MaranasLab/ThioesteraseSubstrateSpecificityPrediction/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C2473D-911B-4045-BC0B-7614500E1C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CFA89-F41E-4743-A774-CFEE9DA620BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B8045420-4756-4940-9819-3D23D061A3FF}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="22320" windowHeight="13180" xr2:uid="{B8045420-4756-4940-9819-3D23D061A3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,12 +321,6 @@
     <t>Cuphea_viscosisssima_(CvB2MT3</t>
   </si>
   <si>
-    <t>UcFatB1(R197M, M199H, T231K)</t>
-  </si>
-  <si>
-    <t>UcFatB1(197M, M199H)</t>
-  </si>
-  <si>
     <t>UcFatB1(T231K)</t>
   </si>
   <si>
@@ -382,6 +376,12 @@
   </si>
   <si>
     <t>Micromonas_pusilla</t>
+  </si>
+  <si>
+    <t>UcFatB1(197M-M199H)</t>
+  </si>
+  <si>
+    <t>UcFatB1(R197M-M199H-T231K)</t>
   </si>
 </sst>
 </file>
@@ -778,144 +778,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE36AD1-CB69-4041-B55E-51BF233F2B94}">
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3">
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3">
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4">
         <v>0.8271455115292411</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -923,7 +924,7 @@
         <v>0.80137254901960786</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -931,7 +932,7 @@
         <v>2.1607605877268812E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -939,7 +940,7 @@
         <v>0.19959829274416269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -947,7 +948,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -955,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -979,7 +980,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -987,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -995,7 +996,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>0.98356545961002784</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>0.25843656557026912</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>5.5198973042361987E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>3.8461538461538457E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>1.383399209486166E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>8.6067778375470676E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>0.57091561938958701</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>7.9176563737133818E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0.52738654147104858</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>0.47272727272727277</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>0.92699999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>0.38799999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>0.86699999999999988</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>0.8630000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>0.80799999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>0.38699999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0.85400000000000009</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>0.69699999999999984</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>0.68099999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>0.48599999999999993</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>6.699999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>0.65300000000000014</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>0.75299999999999978</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>0.70400000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>0.70400000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>0.82400000000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>0.79899999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>0.94600000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>0.93800000000000017</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>0.34299999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>0.68299999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>0.58700000000000008</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>73</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0.50800000000000012</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>74</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>0.37699999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>0.40299999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>78</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>0.34600000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>0.16700000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>6.699999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>93</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -1675,41 +1676,41 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B112" s="4">
         <v>9.1166623744527428E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B113" s="4">
         <v>0.40544977019041362</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B114" s="4">
         <v>0.8271455115292411</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B115" s="4">
         <v>6.7251853805842827E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B116" s="4">
         <v>1.2846465085789722E-2</v>

--- a/Data/ThioesteraseProductFractionLabel.xlsx
+++ b/Data/ThioesteraseProductFractionLabel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzb5732/Box Sync/PhD-dzb5732@psu.edu/Projects/MaranasLab/ThioesteraseSubstrateSpecificityPrediction/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0CFA89-F41E-4743-A774-CFEE9DA620BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA750E-E53E-574A-9429-4F45121C05C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="22320" windowHeight="13180" xr2:uid="{B8045420-4756-4940-9819-3D23D061A3FF}"/>
   </bookViews>
@@ -324,9 +324,6 @@
     <t>UcFatB1(T231K)</t>
   </si>
   <si>
-    <t>Prunus_sibirica_L._(Siberian apricot)</t>
-  </si>
-  <si>
     <t>Auxenochlorella_protothecoides</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>UcFatB1(R197M-M199H-T231K)</t>
+  </si>
+  <si>
+    <t>Prunus_sibirica_L._(Siberian</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
   <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3">
         <v>0.98</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3">
         <v>0.81</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3">
         <v>0.05</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
         <v>0.1</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3">
         <v>0.17</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3">
         <v>0.03</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3">
         <v>0.52</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3">
         <v>0.15</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3">
         <v>0.24</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>0.1</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3">
         <v>0.09</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3">
         <v>0.06</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3">
         <v>0.04</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="4">
         <v>0.8271455115292411</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="4">
         <v>9.1166623744527428E-2</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="4">
         <v>0.40544977019041362</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B115" s="4">
         <v>6.7251853805842827E-3</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="4">
         <v>1.2846465085789722E-2</v>
